--- a/用例数据/股转/分红派息/场景.xlsx
+++ b/用例数据/股转/分红派息/场景.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD576CBE-8EF4-4ED7-B49F-6EE4E579DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +99,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>839409</t>
+    <t>未开户派息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日是历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430032</t>
+  </si>
+  <si>
+    <t>430037</t>
+  </si>
+  <si>
+    <t>登记日是历史，且没有持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430047</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,12 +165,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,11 +224,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,410 +522,879 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C22" sqref="C22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>80000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.3</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="3">
-        <f>D2*E2</f>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>E2*F2</f>
         <v>24000</v>
       </c>
-      <c r="H2" s="3">
-        <f>D2*F2</f>
+      <c r="I2" s="2">
+        <f>E2*G2</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="9">
+        <f>E2+H2</f>
+        <v>104000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
         <v>839408</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>80000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.3</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G13" si="0">D3*E3</f>
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H13" si="0">E3*F3</f>
         <v>24000</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H13" si="1">D3*F3</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I13" si="1">E3*G3</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J21" si="2">E3+H3</f>
+        <v>104000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>103999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>114398.90000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>10399.900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="9">
+        <f t="shared" si="2"/>
+        <v>218397.90000000002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>103999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>114398.90000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>10399.900000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>218397.90000000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
         <v>839408</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="7">
         <v>50000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="7">
         <v>0.3</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="J6" s="9">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
         <v>839408</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="7">
         <v>30000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="7">
         <v>0.3</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3999</v>
+      </c>
+      <c r="F9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>4398.9000000000005</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>399.90000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>8397.9000000000015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
         <v>839408</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="7">
         <v>30000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="7">
         <v>0.3</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
         <v>839408</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="7">
         <v>50000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="7">
         <v>0.3</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="4">
         <v>3999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>4398.9000000000005</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>399.90000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>8397.9000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="E13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" ref="H14:H17" si="3">E14*F14</f>
+        <v>15000</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" ref="I14:I17" si="4">E14*G14</f>
+        <v>5000</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" ref="H18:H21" si="5">E18*F18</f>
+        <v>24000</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" ref="I18:I21" si="6">E18*G18</f>
+        <v>8000</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="2"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="6"/>
+        <v>8000</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="2"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="6"/>
+        <v>8000</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="2"/>
+        <v>104000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>80000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="6"/>
+        <v>8000</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="2"/>
+        <v>104000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>333</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <v>667</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2">
-        <v>4600000000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f>D14*E14</f>
-        <v>4600000000</v>
-      </c>
-      <c r="H14" s="3">
-        <f>D14*F14</f>
-        <v>0</v>
-      </c>
+      <c r="E24" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <v>667</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <v>333</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
